--- a/results/I3_N5_M2_T45_C200_DepCentral_s0_res.xlsx
+++ b/results/I3_N5_M2_T45_C200_DepCentral_s0_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>844.3335113746082</v>
+        <v>18.39770858716315</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.172999858856201</v>
+        <v>0.4560000896453857</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23.20351137317892</v>
+        <v>18.39770858716315</v>
       </c>
     </row>
     <row r="7">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>821.1300000014293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -645,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -852,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>33.77588400245556</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -860,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>33.88634790002131</v>
       </c>
     </row>
     <row r="5">
@@ -868,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>42.87750147232089</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -876,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>42.57904977333282</v>
+        <v>42.57904977333279</v>
       </c>
     </row>
     <row r="7">
@@ -884,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>44.16274257244263</v>
       </c>
     </row>
     <row r="8">
@@ -1043,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>145.3950000000078</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
@@ -1054,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>163.4750000000095</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
@@ -1065,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>167.3200000000071</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
@@ -1076,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>168.7700000000078</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -1087,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>166.2650000000086</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12">
@@ -1098,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>111.4</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
@@ -1109,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>122.0650000000205</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14">
@@ -1120,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>116.7150000000183</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15">
@@ -1131,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>125.2100000000173</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16">
@@ -1142,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>122.6300000000156</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17">
@@ -1153,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>244.9400000000314</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -1164,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>255.9900000000398</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19">
@@ -1175,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>267.3899999999339</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
@@ -1186,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8650000000362</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
@@ -1197,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>269.0450000000347</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22">
@@ -1208,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>219.9150000000575</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23">
@@ -1219,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>218.9850000000499</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24">
@@ -1230,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>223.3600000000608</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25">
@@ -1241,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>228.9550000000602</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26">
@@ -1252,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>223.1200000000556</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27">
@@ -1263,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>77.22000000000298</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28">
@@ -1274,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>87.34500000000482</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29">
@@ -1285,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>91.48000000000322</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30">
@@ -1296,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>91.86000000000242</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31">
@@ -1307,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>90.41500000000453</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32">
@@ -1318,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>219.9150000001034</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33">
@@ -1329,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>218.9850000000959</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34">
@@ -1340,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>223.3600000001086</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35">
@@ -1351,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>228.9550000001097</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36">
@@ -1362,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>223.1200000000997</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37">
@@ -1373,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>244.9400000000733</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38">
@@ -1384,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>255.9900000000744</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39">
@@ -1395,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>267.3899999999064</v>
+        <v>188</v>
       </c>
     </row>
     <row r="40">
@@ -1406,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>258.8650000000744</v>
+        <v>188</v>
       </c>
     </row>
     <row r="41">
@@ -1417,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>269.0450000000802</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -1464,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>19.91500000010222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1475,7 +1475,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>18.98500000009466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1486,7 +1486,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>23.36000000010739</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1497,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>28.95500000010856</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1508,7 +1508,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>23.12000000009851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1519,7 +1519,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>44.94000000007242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1530,7 +1530,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>55.99000000007339</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1541,7 +1541,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>67.38999999990494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1552,7 +1552,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>58.86500000007339</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1563,7 +1563,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>69.04500000007914</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1888,7 +1888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1913,116 +1913,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
